--- a/Power BI入门数据源/项目2数据源数据/数据分析/深圳数据集.xlsx
+++ b/Power BI入门数据源/项目2数据源数据/数据分析/深圳数据集.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA61496-CF38-4A47-9AEE-BA725E3DE2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1403">
   <si>
     <t>标题</t>
   </si>
@@ -7532,18 +7543,29 @@
 7.有显著的科研或工作成果，曾发表权威性论文，主导或参与过市场影响力较高的数据项目研发优先；
 8. 熟悉物流或者供应链相关业务优先,国际咨询企业任职经历者优先。</t>
   </si>
+  <si>
+    <t>公司规模1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7570,7 +7592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7906,10 +7928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7949,8 +7980,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -7990,8 +8024,12 @@
       <c r="M2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M2,1))),M2,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -8031,8 +8069,12 @@
       <c r="M3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M3,1))),M3,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8072,8 +8114,12 @@
       <c r="M4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M4,1))),M4,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8113,8 +8159,12 @@
       <c r="M5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M5,1))),M5,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -8154,8 +8204,12 @@
       <c r="M6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M6,1))),M6,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -8195,8 +8249,12 @@
       <c r="M7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M7,1))),M7,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -8236,8 +8294,12 @@
       <c r="M8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M8,1))),M8,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -8277,8 +8339,12 @@
       <c r="M9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M9,1))),M9,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -8318,8 +8384,12 @@
       <c r="M10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M10,1))),M10,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -8359,8 +8429,12 @@
       <c r="M11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M11,1))),M11,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -8400,8 +8474,12 @@
       <c r="M12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M12,1))),M12,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -8441,8 +8519,12 @@
       <c r="M13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M13,1))),M13,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -8482,8 +8564,12 @@
       <c r="M14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M14,1))),M14,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -8523,8 +8609,12 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M15,1))),M15,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8564,8 +8654,12 @@
       <c r="M16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M16,1))),M16,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -8605,8 +8699,12 @@
       <c r="M17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M17,1))),M17,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -8646,8 +8744,12 @@
       <c r="M18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M18,1))),M18,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -8687,8 +8789,12 @@
       <c r="M19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M19,1))),M19,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -8728,8 +8834,12 @@
       <c r="M20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M20,1))),M20,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -8769,8 +8879,12 @@
       <c r="M21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M21,1))),M21,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -8810,8 +8924,12 @@
       <c r="M22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M22,1))),M22,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -8851,8 +8969,12 @@
       <c r="M23" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M23,1))),M23,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8892,8 +9014,12 @@
       <c r="M24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M24,1))),M24,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -8933,8 +9059,12 @@
       <c r="M25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M25,1))),M25,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -8974,8 +9104,12 @@
       <c r="M26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M26,1))),M26,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -9015,8 +9149,12 @@
       <c r="M27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M27,1))),M27,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -9056,8 +9194,12 @@
       <c r="M28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M28,1))),M28,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9097,8 +9239,12 @@
       <c r="M29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M29,1))),M29,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -9138,8 +9284,12 @@
       <c r="M30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M30,1))),M30,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -9179,8 +9329,12 @@
       <c r="M31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M31,1))),M31,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -9220,8 +9374,12 @@
       <c r="M32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M32,1))),M32,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -9261,8 +9419,12 @@
       <c r="M33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M33,1))),M33,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>245</v>
       </c>
@@ -9302,8 +9464,12 @@
       <c r="M34" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M34,1))),M34,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -9343,8 +9509,12 @@
       <c r="M35" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M35,1))),M35,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>258</v>
       </c>
@@ -9384,8 +9554,12 @@
       <c r="M36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M36,1))),M36,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -9425,8 +9599,12 @@
       <c r="M37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M37,1))),M37,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -9466,8 +9644,12 @@
       <c r="M38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M38,1))),M38,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -9507,8 +9689,12 @@
       <c r="M39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M39,1))),M39,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -9548,8 +9734,12 @@
       <c r="M40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M40,1))),M40,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -9589,8 +9779,12 @@
       <c r="M41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M41,1))),M41,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>290</v>
       </c>
@@ -9630,8 +9824,12 @@
       <c r="M42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M42,1))),M42,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -9671,8 +9869,12 @@
       <c r="M43" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M43,1))),M43,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -9712,8 +9914,12 @@
       <c r="M44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M44,1))),M44,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>308</v>
       </c>
@@ -9753,8 +9959,12 @@
       <c r="M45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M45,1))),M45,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>315</v>
       </c>
@@ -9794,8 +10004,12 @@
       <c r="M46" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M46,1))),M46,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>317</v>
       </c>
@@ -9835,8 +10049,12 @@
       <c r="M47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M47,1))),M47,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -9876,8 +10094,12 @@
       <c r="M48" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M48,1))),M48,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -9917,8 +10139,12 @@
       <c r="M49" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M49,1))),M49,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -9958,8 +10184,12 @@
       <c r="M50" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M50,1))),M50,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -9999,8 +10229,12 @@
       <c r="M51" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M51,1))),M51,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>347</v>
       </c>
@@ -10040,8 +10274,12 @@
       <c r="M52" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M52,1))),M52,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -10081,8 +10319,12 @@
       <c r="M53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M53,1))),M53,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -10122,8 +10364,12 @@
       <c r="M54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M54,1))),M54,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -10163,8 +10409,12 @@
       <c r="M55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M55,1))),M55,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -10204,8 +10454,12 @@
       <c r="M56" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M56,1))),M56,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>376</v>
       </c>
@@ -10245,8 +10499,12 @@
       <c r="M57" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M57,1))),M57,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -10286,8 +10544,12 @@
       <c r="M58" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M58,1))),M58,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>390</v>
       </c>
@@ -10327,8 +10589,12 @@
       <c r="M59" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M59,1))),M59,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>394</v>
       </c>
@@ -10368,8 +10634,12 @@
       <c r="M60" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M60,1))),M60,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>396</v>
       </c>
@@ -10409,8 +10679,12 @@
       <c r="M61" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M61,1))),M61,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>401</v>
       </c>
@@ -10450,8 +10724,12 @@
       <c r="M62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M62,1))),M62,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>405</v>
       </c>
@@ -10491,8 +10769,12 @@
       <c r="M63" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M63,1))),M63,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>410</v>
       </c>
@@ -10532,8 +10814,12 @@
       <c r="M64" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M64,1))),M64,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>417</v>
       </c>
@@ -10573,8 +10859,12 @@
       <c r="M65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M65,1))),M65,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>424</v>
       </c>
@@ -10614,8 +10904,12 @@
       <c r="M66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M66,1))),M66,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>354</v>
       </c>
@@ -10655,8 +10949,12 @@
       <c r="M67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M67,1))),M67,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>437</v>
       </c>
@@ -10696,8 +10994,12 @@
       <c r="M68" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M68,1))),M68,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -10737,8 +11039,12 @@
       <c r="M69" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M69,1))),M69,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -10778,8 +11084,12 @@
       <c r="M70" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M70,1))),M70,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -10819,8 +11129,12 @@
       <c r="M71" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M71,1))),M71,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -10860,8 +11174,12 @@
       <c r="M72" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M72,1))),M72,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -10901,8 +11219,12 @@
       <c r="M73" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M73,1))),M73,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -10942,8 +11264,12 @@
       <c r="M74" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M74,1))),M74,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>473</v>
       </c>
@@ -10983,8 +11309,12 @@
       <c r="M75" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M75,1))),M75,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -11024,8 +11354,12 @@
       <c r="M76" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M76,1))),M76,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -11065,8 +11399,12 @@
       <c r="M77" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M77,1))),M77,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -11106,8 +11444,12 @@
       <c r="M78" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M78,1))),M78,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>480</v>
       </c>
@@ -11147,8 +11489,12 @@
       <c r="M79" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M79,1))),M79,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>484</v>
       </c>
@@ -11188,8 +11534,12 @@
       <c r="M80" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M80,1))),M80,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>490</v>
       </c>
@@ -11229,8 +11579,12 @@
       <c r="M81" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M81,1))),M81,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -11270,8 +11624,12 @@
       <c r="M82" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M82,1))),M82,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>499</v>
       </c>
@@ -11311,8 +11669,12 @@
       <c r="M83" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M83,1))),M83,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -11352,8 +11714,12 @@
       <c r="M84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M84,1))),M84,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -11393,8 +11759,12 @@
       <c r="M85" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M85,1))),M85,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>517</v>
       </c>
@@ -11434,8 +11804,12 @@
       <c r="M86" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M86,1))),M86,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -11475,8 +11849,12 @@
       <c r="M87" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M87,1))),M87,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -11516,8 +11894,12 @@
       <c r="M88" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M88,1))),M88,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>354</v>
       </c>
@@ -11557,8 +11939,12 @@
       <c r="M89" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M89,1))),M89,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -11598,8 +11984,12 @@
       <c r="M90" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M90,1))),M90,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>543</v>
       </c>
@@ -11639,8 +12029,12 @@
       <c r="M91" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M91,1))),M91,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>417</v>
       </c>
@@ -11680,8 +12074,12 @@
       <c r="M92" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M92,1))),M92,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -11721,8 +12119,12 @@
       <c r="M93" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M93,1))),M93,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -11762,8 +12164,12 @@
       <c r="M94" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M94,1))),M94,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>560</v>
       </c>
@@ -11803,8 +12209,12 @@
       <c r="M95" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M95,1))),M95,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>354</v>
       </c>
@@ -11844,8 +12254,12 @@
       <c r="M96" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M96,1))),M96,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>571</v>
       </c>
@@ -11885,8 +12299,12 @@
       <c r="M97" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M97,1))),M97,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -11926,8 +12344,12 @@
       <c r="M98" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M98,1))),M98,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -11967,8 +12389,12 @@
       <c r="M99" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M99,1))),M99,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>590</v>
       </c>
@@ -12008,8 +12434,12 @@
       <c r="M100" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M100,1))),M100,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -12049,8 +12479,12 @@
       <c r="M101" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M101,1))),M101,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>354</v>
       </c>
@@ -12090,8 +12524,12 @@
       <c r="M102" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M102,1))),M102,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -12131,8 +12569,12 @@
       <c r="M103" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M103,1))),M103,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>610</v>
       </c>
@@ -12172,8 +12614,12 @@
       <c r="M104" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M104,1))),M104,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>616</v>
       </c>
@@ -12213,8 +12659,12 @@
       <c r="M105" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M105,1))),M105,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>417</v>
       </c>
@@ -12254,8 +12704,12 @@
       <c r="M106" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M106,1))),M106,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -12295,8 +12749,12 @@
       <c r="M107" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M107,1))),M107,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>354</v>
       </c>
@@ -12336,8 +12794,12 @@
       <c r="M108" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M108,1))),M108,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>635</v>
       </c>
@@ -12377,8 +12839,12 @@
       <c r="M109" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M109,1))),M109,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -12418,8 +12884,12 @@
       <c r="M110" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M110,1))),M110,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>517</v>
       </c>
@@ -12459,8 +12929,12 @@
       <c r="M111" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M111,1))),M111,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -12500,8 +12974,12 @@
       <c r="M112" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M112,1))),M112,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>654</v>
       </c>
@@ -12541,8 +13019,12 @@
       <c r="M113" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M113,1))),M113,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -12582,8 +13064,12 @@
       <c r="M114" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M114,1))),M114,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -12623,8 +13109,12 @@
       <c r="M115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M115,1))),M115,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>97</v>
       </c>
@@ -12664,8 +13154,12 @@
       <c r="M116" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M116,1))),M116,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -12705,8 +13199,12 @@
       <c r="M117" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M117,1))),M117,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>484</v>
       </c>
@@ -12746,8 +13244,12 @@
       <c r="M118" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M118,1))),M118,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>684</v>
       </c>
@@ -12787,8 +13289,12 @@
       <c r="M119" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M119,1))),M119,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>690</v>
       </c>
@@ -12828,8 +13334,12 @@
       <c r="M120" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M120,1))),M120,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>684</v>
       </c>
@@ -12869,8 +13379,12 @@
       <c r="M121" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M121,1))),M121,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>695</v>
       </c>
@@ -12910,8 +13424,12 @@
       <c r="M122" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M122,1))),M122,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>517</v>
       </c>
@@ -12951,8 +13469,12 @@
       <c r="M123" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M123,1))),M123,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -12992,8 +13514,12 @@
       <c r="M124" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M124,1))),M124,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>706</v>
       </c>
@@ -13033,8 +13559,12 @@
       <c r="M125" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M125,1))),M125,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>715</v>
       </c>
@@ -13074,8 +13604,12 @@
       <c r="M126" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M126,1))),M126,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>723</v>
       </c>
@@ -13115,8 +13649,12 @@
       <c r="M127" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M127,1))),M127,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -13156,8 +13694,12 @@
       <c r="M128" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M128,1))),M128,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>354</v>
       </c>
@@ -13197,8 +13739,12 @@
       <c r="M129" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M129,1))),M129,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>741</v>
       </c>
@@ -13238,8 +13784,12 @@
       <c r="M130" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M130,1))),M130,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>113</v>
       </c>
@@ -13279,8 +13829,12 @@
       <c r="M131" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M131,1))),M131,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>113</v>
       </c>
@@ -13320,8 +13874,12 @@
       <c r="M132" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M132,1))),M132,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>755</v>
       </c>
@@ -13361,8 +13919,12 @@
       <c r="M133" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M133,1))),M133,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>354</v>
       </c>
@@ -13402,8 +13964,12 @@
       <c r="M134" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M134,1))),M134,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>766</v>
       </c>
@@ -13443,8 +14009,12 @@
       <c r="M135" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M135,1))),M135,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>770</v>
       </c>
@@ -13484,8 +14054,12 @@
       <c r="M136" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M136,1))),M136,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>775</v>
       </c>
@@ -13525,8 +14099,12 @@
       <c r="M137" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M137,1))),M137,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>779</v>
       </c>
@@ -13566,8 +14144,12 @@
       <c r="M138" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M138,1))),M138,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>113</v>
       </c>
@@ -13607,8 +14189,12 @@
       <c r="M139" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M139,1))),M139,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>792</v>
       </c>
@@ -13648,8 +14234,12 @@
       <c r="M140" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M140,1))),M140,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>797</v>
       </c>
@@ -13689,8 +14279,12 @@
       <c r="M141" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M141,1))),M141,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>113</v>
       </c>
@@ -13730,8 +14324,12 @@
       <c r="M142" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M142,1))),M142,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -13771,8 +14369,12 @@
       <c r="M143" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M143,1))),M143,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -13812,8 +14414,12 @@
       <c r="M144" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M144,1))),M144,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -13853,8 +14459,12 @@
       <c r="M145" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M145,1))),M145,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>822</v>
       </c>
@@ -13894,8 +14504,12 @@
       <c r="M146" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M146,1))),M146,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>417</v>
       </c>
@@ -13935,8 +14549,12 @@
       <c r="M147" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M147,1))),M147,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>834</v>
       </c>
@@ -13976,8 +14594,12 @@
       <c r="M148" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M148,1))),M148,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -14017,8 +14639,12 @@
       <c r="M149" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M149,1))),M149,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>846</v>
       </c>
@@ -14058,8 +14684,12 @@
       <c r="M150" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M150,1))),M150,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>849</v>
       </c>
@@ -14099,8 +14729,12 @@
       <c r="M151" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M151,1))),M151,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>854</v>
       </c>
@@ -14140,8 +14774,12 @@
       <c r="M152" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M152,1))),M152,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>856</v>
       </c>
@@ -14181,8 +14819,12 @@
       <c r="M153" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M153,1))),M153,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>860</v>
       </c>
@@ -14222,8 +14864,12 @@
       <c r="M154" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M154,1))),M154,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>866</v>
       </c>
@@ -14263,8 +14909,12 @@
       <c r="M155" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M155,1))),M155,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>354</v>
       </c>
@@ -14304,8 +14954,12 @@
       <c r="M156" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M156,1))),M156,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -14345,8 +14999,12 @@
       <c r="M157" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M157,1))),M157,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -14386,8 +15044,12 @@
       <c r="M158" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M158,1))),M158,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -14427,8 +15089,12 @@
       <c r="M159" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M159,1))),M159,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>888</v>
       </c>
@@ -14468,8 +15134,12 @@
       <c r="M160" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M160,1))),M160,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -14509,8 +15179,12 @@
       <c r="M161" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M161,1))),M161,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>900</v>
       </c>
@@ -14550,8 +15224,12 @@
       <c r="M162" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M162,1))),M162,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>904</v>
       </c>
@@ -14591,8 +15269,12 @@
       <c r="M163" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M163,1))),M163,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -14632,8 +15314,12 @@
       <c r="M164" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M164,1))),M164,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>914</v>
       </c>
@@ -14673,8 +15359,12 @@
       <c r="M165" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M165,1))),M165,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>916</v>
       </c>
@@ -14714,8 +15404,12 @@
       <c r="M166" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M166,1))),M166,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -14755,8 +15449,12 @@
       <c r="M167" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M167,1))),M167,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>926</v>
       </c>
@@ -14796,8 +15494,12 @@
       <c r="M168" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M168,1))),M168,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>900</v>
       </c>
@@ -14837,8 +15539,12 @@
       <c r="M169" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M169,1))),M169,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>937</v>
       </c>
@@ -14878,8 +15584,12 @@
       <c r="M170" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M170,1))),M170,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>943</v>
       </c>
@@ -14919,8 +15629,12 @@
       <c r="M171" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M171,1))),M171,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>948</v>
       </c>
@@ -14960,8 +15674,12 @@
       <c r="M172" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M172,1))),M172,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -15001,8 +15719,12 @@
       <c r="M173" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M173,1))),M173,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>904</v>
       </c>
@@ -15042,8 +15764,12 @@
       <c r="M174" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M174,1))),M174,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>70</v>
       </c>
@@ -15083,8 +15809,12 @@
       <c r="M175" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M175,1))),M175,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>965</v>
       </c>
@@ -15124,8 +15854,12 @@
       <c r="M176" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M176,1))),M176,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>970</v>
       </c>
@@ -15165,8 +15899,12 @@
       <c r="M177" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M177,1))),M177,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>973</v>
       </c>
@@ -15206,8 +15944,12 @@
       <c r="M178" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M178,1))),M178,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>904</v>
       </c>
@@ -15247,8 +15989,12 @@
       <c r="M179" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M179,1))),M179,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>982</v>
       </c>
@@ -15288,8 +16034,12 @@
       <c r="M180" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M180,1))),M180,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>943</v>
       </c>
@@ -15329,8 +16079,12 @@
       <c r="M181" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M181,1))),M181,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>113</v>
       </c>
@@ -15370,8 +16124,12 @@
       <c r="M182" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M182,1))),M182,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>994</v>
       </c>
@@ -15411,8 +16169,12 @@
       <c r="M183" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M183,1))),M183,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>998</v>
       </c>
@@ -15452,8 +16214,12 @@
       <c r="M184" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M184,1))),M184,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1001</v>
       </c>
@@ -15493,8 +16259,12 @@
       <c r="M185" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M185,1))),M185,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>994</v>
       </c>
@@ -15534,8 +16304,12 @@
       <c r="M186" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M186,1))),M186,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1011</v>
       </c>
@@ -15575,8 +16349,12 @@
       <c r="M187" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M187,1))),M187,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>943</v>
       </c>
@@ -15616,8 +16394,12 @@
       <c r="M188" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M188,1))),M188,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -15657,8 +16439,12 @@
       <c r="M189" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M189,1))),M189,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -15698,8 +16484,12 @@
       <c r="M190" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M190,1))),M190,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1033</v>
       </c>
@@ -15739,8 +16529,12 @@
       <c r="M191" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M191,1))),M191,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1037</v>
       </c>
@@ -15780,8 +16574,12 @@
       <c r="M192" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M192,1))),M192,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -15821,8 +16619,12 @@
       <c r="M193" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M193,1))),M193,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>396</v>
       </c>
@@ -15862,8 +16664,12 @@
       <c r="M194" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M194,1))),M194,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1053</v>
       </c>
@@ -15903,8 +16709,12 @@
       <c r="M195" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M195,1))),M195,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>900</v>
       </c>
@@ -15944,8 +16754,12 @@
       <c r="M196" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M196,1))),M196,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1063</v>
       </c>
@@ -15985,8 +16799,12 @@
       <c r="M197" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M197,1))),M197,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -16026,8 +16844,12 @@
       <c r="M198" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M198,1))),M198,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>28</v>
       </c>
@@ -16067,8 +16889,12 @@
       <c r="M199" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M199,1))),M199,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>97</v>
       </c>
@@ -16108,8 +16934,12 @@
       <c r="M200" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M200,1))),M200,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -16149,8 +16979,12 @@
       <c r="M201" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M201,1))),M201,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>97</v>
       </c>
@@ -16190,8 +17024,12 @@
       <c r="M202" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M202,1))),M202,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1090</v>
       </c>
@@ -16231,8 +17069,12 @@
       <c r="M203" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M203,1))),M203,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>97</v>
       </c>
@@ -16272,8 +17114,12 @@
       <c r="M204" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M204,1))),M204,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -16313,8 +17159,12 @@
       <c r="M205" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M205,1))),M205,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>635</v>
       </c>
@@ -16354,8 +17204,12 @@
       <c r="M206" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M206,1))),M206,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1109</v>
       </c>
@@ -16395,8 +17249,12 @@
       <c r="M207" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M207,1))),M207,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>97</v>
       </c>
@@ -16436,8 +17294,12 @@
       <c r="M208" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M208,1))),M208,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1117</v>
       </c>
@@ -16477,8 +17339,12 @@
       <c r="M209" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M209,1))),M209,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1123</v>
       </c>
@@ -16518,8 +17384,12 @@
       <c r="M210" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M210,1))),M210,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1128</v>
       </c>
@@ -16559,8 +17429,12 @@
       <c r="M211" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M211,1))),M211,NULL)</f>
+        <v>15-50人</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>97</v>
       </c>
@@ -16600,8 +17474,12 @@
       <c r="M212" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M212,1))),M212,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1135</v>
       </c>
@@ -16641,8 +17519,12 @@
       <c r="M213" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M213,1))),M213,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1141</v>
       </c>
@@ -16682,8 +17564,12 @@
       <c r="M214" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M214,1))),M214,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>113</v>
       </c>
@@ -16723,8 +17609,12 @@
       <c r="M215" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M215,1))),M215,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1152</v>
       </c>
@@ -16764,8 +17654,12 @@
       <c r="M216" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M216,1))),M216,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1157</v>
       </c>
@@ -16805,8 +17699,12 @@
       <c r="M217" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M217,1))),M217,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1159</v>
       </c>
@@ -16846,8 +17744,12 @@
       <c r="M218" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M218,1))),M218,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1163</v>
       </c>
@@ -16887,8 +17789,12 @@
       <c r="M219" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M219,1))),M219,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1167</v>
       </c>
@@ -16928,8 +17834,12 @@
       <c r="M220" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M220,1))),M220,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1172</v>
       </c>
@@ -16969,8 +17879,12 @@
       <c r="M221" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M221,1))),M221,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1176</v>
       </c>
@@ -17010,8 +17924,12 @@
       <c r="M222" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M222,1))),M222,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1182</v>
       </c>
@@ -17051,8 +17969,12 @@
       <c r="M223" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M223,1))),M223,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1190</v>
       </c>
@@ -17092,8 +18014,12 @@
       <c r="M224" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M224,1))),M224,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1195</v>
       </c>
@@ -17133,8 +18059,12 @@
       <c r="M225" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M225,1))),M225,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1198</v>
       </c>
@@ -17174,8 +18104,12 @@
       <c r="M226" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M226,1))),M226,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1202</v>
       </c>
@@ -17215,8 +18149,12 @@
       <c r="M227" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M227,1))),M227,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1207</v>
       </c>
@@ -17256,8 +18194,12 @@
       <c r="M228" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M228,1))),M228,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1211</v>
       </c>
@@ -17297,8 +18239,12 @@
       <c r="M229" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M229,1))),M229,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1217</v>
       </c>
@@ -17338,8 +18284,12 @@
       <c r="M230" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M230,1))),M230,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1223</v>
       </c>
@@ -17379,8 +18329,12 @@
       <c r="M231" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M231,1))),M231,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1226</v>
       </c>
@@ -17420,8 +18374,12 @@
       <c r="M232" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M232,1))),M232,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1233</v>
       </c>
@@ -17461,8 +18419,12 @@
       <c r="M233" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M233,1))),M233,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1238</v>
       </c>
@@ -17502,8 +18464,12 @@
       <c r="M234" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M234,1))),M234,NULL)</f>
+        <v>500-2000人</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1244</v>
       </c>
@@ -17543,8 +18509,12 @@
       <c r="M235" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M235,1))),M235,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1250</v>
       </c>
@@ -17584,8 +18554,12 @@
       <c r="M236" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M236,1))),M236,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1254</v>
       </c>
@@ -17625,8 +18599,12 @@
       <c r="M237" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M237,1))),M237,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1261</v>
       </c>
@@ -17666,8 +18644,12 @@
       <c r="M238" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M238,1))),M238,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1268</v>
       </c>
@@ -17707,8 +18689,12 @@
       <c r="M239" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M239,1))),M239,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1272</v>
       </c>
@@ -17748,8 +18734,12 @@
       <c r="M240" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M240,1))),M240,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1276</v>
       </c>
@@ -17789,8 +18779,12 @@
       <c r="M241" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M241,1))),M241,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1279</v>
       </c>
@@ -17830,8 +18824,12 @@
       <c r="M242" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M242,1))),M242,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1281</v>
       </c>
@@ -17871,8 +18869,12 @@
       <c r="M243" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M243,1))),M243,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1285</v>
       </c>
@@ -17912,8 +18914,12 @@
       <c r="M244" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M244,1))),M244,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1291</v>
       </c>
@@ -17953,8 +18959,12 @@
       <c r="M245" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M245,1))),M245,NULL)</f>
+        <v>150-500人</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1296</v>
       </c>
@@ -17994,8 +19004,12 @@
       <c r="M246" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M246,1))),M246,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1301</v>
       </c>
@@ -18035,8 +19049,12 @@
       <c r="M247" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M247,1))),M247,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1304</v>
       </c>
@@ -18076,8 +19094,12 @@
       <c r="M248" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M248,1))),M248,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1306</v>
       </c>
@@ -18117,8 +19139,12 @@
       <c r="M249" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M249,1))),M249,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1312</v>
       </c>
@@ -18158,8 +19184,12 @@
       <c r="M250" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M250,1))),M250,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1315</v>
       </c>
@@ -18199,8 +19229,12 @@
       <c r="M251" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M251,1))),M251,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1321</v>
       </c>
@@ -18240,8 +19274,12 @@
       <c r="M252" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M252,1))),M252,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1326</v>
       </c>
@@ -18281,8 +19319,12 @@
       <c r="M253" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M253,1))),M253,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1332</v>
       </c>
@@ -18322,8 +19364,12 @@
       <c r="M254" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M254,1))),M254,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1337</v>
       </c>
@@ -18363,8 +19409,12 @@
       <c r="M255" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M255,1))),M255,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1340</v>
       </c>
@@ -18404,8 +19454,12 @@
       <c r="M256" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M256,1))),M256,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1343</v>
       </c>
@@ -18445,8 +19499,12 @@
       <c r="M257" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M257,1))),M257,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1347</v>
       </c>
@@ -18486,8 +19544,12 @@
       <c r="M258" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M258,1))),M258,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1351</v>
       </c>
@@ -18527,8 +19589,12 @@
       <c r="M259" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M259,1))),M259,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1355</v>
       </c>
@@ -18568,8 +19634,12 @@
       <c r="M260" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M260,1))),M260,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1359</v>
       </c>
@@ -18609,8 +19679,12 @@
       <c r="M261" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M261,1))),M261,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1306</v>
       </c>
@@ -18650,8 +19724,12 @@
       <c r="M262" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M262,1))),M262,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1366</v>
       </c>
@@ -18691,8 +19769,12 @@
       <c r="M263" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M263,1))),M263,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1368</v>
       </c>
@@ -18732,8 +19814,12 @@
       <c r="M264" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M264,1))),M264,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1372</v>
       </c>
@@ -18773,8 +19859,12 @@
       <c r="M265" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M265,1))),M265,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1374</v>
       </c>
@@ -18814,8 +19904,12 @@
       <c r="M266" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M266,1))),M266,NULL)</f>
+        <v>50-150人</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1378</v>
       </c>
@@ -18855,8 +19949,12 @@
       <c r="M267" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M267,1))),M267,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1378</v>
       </c>
@@ -18896,8 +19994,12 @@
       <c r="M268" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M268,1))),M268,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1385</v>
       </c>
@@ -18937,8 +20039,12 @@
       <c r="M269" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M269,1))),M269,NULL)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1388</v>
       </c>
@@ -18978,8 +20084,12 @@
       <c r="M270" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M270,1))),M270,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1391</v>
       </c>
@@ -19019,8 +20129,12 @@
       <c r="M271" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M271,1))),M271,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1395</v>
       </c>
@@ -19060,8 +20174,12 @@
       <c r="M272" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M272,1))),M272,NULL)</f>
+        <v>2000人以上</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1398</v>
       </c>
@@ -19101,9 +20219,14 @@
       <c r="M273" t="s">
         <v>34</v>
       </c>
+      <c r="N273" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M273,1))),M273,NULL)</f>
+        <v>2000人以上</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>